--- a/samsung1.xlsx
+++ b/samsung1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper\2020.1\cdados\Projeto1-ttw\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C77A8FD0-AE88-48B6-BB99-466F4ECDE4F7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D51642-97B0-4CF3-BC29-AB0C3221CC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,6 +17,7 @@
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -2293,17 +2294,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A292" workbookViewId="0">
-      <selection activeCell="A296" sqref="A296"/>
+    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
+      <selection activeCell="A290" sqref="A290"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2311,7 +2312,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2319,7 +2320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2327,7 +2328,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2335,15 +2336,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2351,7 +2352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2359,7 +2360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2367,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2375,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2383,15 +2384,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2399,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2407,7 +2408,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2415,7 +2416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2423,23 +2424,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>15</v>
       </c>
       <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2447,7 +2448,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2455,7 +2456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2463,7 +2464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2471,39 +2472,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
       <c r="B22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
       <c r="B23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>23</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>24</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2511,23 +2512,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>26</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>27</v>
       </c>
       <c r="B28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2535,7 +2536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2543,23 +2544,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>30</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>31</v>
       </c>
       <c r="B32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2567,7 +2568,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2575,7 +2576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2583,7 +2584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2591,15 +2592,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>36</v>
       </c>
       <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2607,15 +2608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>38</v>
       </c>
       <c r="B39">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2623,7 +2624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2631,23 +2632,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>41</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>42</v>
       </c>
       <c r="B43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2655,7 +2656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2663,7 +2664,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2671,7 +2672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2687,23 +2688,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>48</v>
       </c>
       <c r="B49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>49</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2711,7 +2712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2719,7 +2720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2727,15 +2728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>53</v>
       </c>
       <c r="B55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2743,7 +2744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2751,15 +2752,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>56</v>
       </c>
       <c r="B58">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2767,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2775,15 +2776,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>59</v>
       </c>
       <c r="B61">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2791,23 +2792,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>61</v>
       </c>
       <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>62</v>
       </c>
       <c r="B64">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2815,7 +2816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2823,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2831,7 +2832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2839,7 +2840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2847,15 +2848,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>68</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2863,7 +2864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2871,23 +2872,23 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>71</v>
       </c>
       <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>72</v>
       </c>
       <c r="B74">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2895,7 +2896,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2903,23 +2904,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>75</v>
       </c>
       <c r="B77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>76</v>
       </c>
       <c r="B78">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2927,7 +2928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2935,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2943,7 +2944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2951,15 +2952,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>81</v>
       </c>
       <c r="B83">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2967,15 +2968,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>83</v>
       </c>
       <c r="B85">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2983,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2991,7 +2992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2999,7 +3000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3007,15 +3008,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>88</v>
       </c>
       <c r="B90">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3023,15 +3024,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>90</v>
       </c>
       <c r="B92">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3039,15 +3040,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>92</v>
       </c>
       <c r="B94">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3055,7 +3056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3063,7 +3064,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3071,7 +3072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3079,7 +3080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3087,7 +3088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3095,7 +3096,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3103,7 +3104,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3111,7 +3112,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3119,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3127,7 +3128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3135,7 +3136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3143,15 +3144,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>105</v>
       </c>
       <c r="B107">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3159,15 +3160,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>107</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3175,15 +3176,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>109</v>
       </c>
       <c r="B111">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3191,7 +3192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3199,7 +3200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3207,7 +3208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3215,7 +3216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3223,15 +3224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>115</v>
       </c>
       <c r="B117">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3239,7 +3240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3247,15 +3248,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>118</v>
       </c>
       <c r="B120">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3263,7 +3264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3271,23 +3272,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>121</v>
       </c>
       <c r="B123">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>122</v>
       </c>
       <c r="B124">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3295,7 +3296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3303,7 +3304,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3319,15 +3320,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>127</v>
       </c>
       <c r="B129">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3335,7 +3336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3343,7 +3344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3351,15 +3352,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>131</v>
       </c>
       <c r="B133">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3367,7 +3368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3375,7 +3376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3383,15 +3384,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>135</v>
       </c>
       <c r="B137">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3399,15 +3400,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>137</v>
       </c>
       <c r="B139">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3415,7 +3416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3423,7 +3424,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3431,7 +3432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3439,15 +3440,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>142</v>
       </c>
       <c r="B144">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3455,31 +3456,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>144</v>
       </c>
       <c r="B146">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>145</v>
       </c>
       <c r="B147">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>146</v>
       </c>
       <c r="B148">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3487,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3495,23 +3496,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>149</v>
       </c>
       <c r="B151">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>150</v>
       </c>
       <c r="B152">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3519,7 +3520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -3527,7 +3528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -3535,15 +3536,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>154</v>
       </c>
       <c r="B156">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -3551,7 +3552,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -3559,7 +3560,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -3567,31 +3568,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>160</v>
       </c>
       <c r="B162">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -3599,7 +3600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -3607,15 +3608,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>163</v>
       </c>
       <c r="B165">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -3623,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -3631,7 +3632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -3639,7 +3640,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -3647,15 +3648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>168</v>
       </c>
       <c r="B170">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -3663,7 +3664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -3671,7 +3672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -3679,7 +3680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -3687,7 +3688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -3695,7 +3696,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3711,15 +3712,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>176</v>
       </c>
       <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -3727,15 +3728,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>178</v>
       </c>
       <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -3743,15 +3744,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>180</v>
       </c>
       <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -3759,7 +3760,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -3767,7 +3768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -3775,7 +3776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -3783,7 +3784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -3791,7 +3792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -3799,7 +3800,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -3807,7 +3808,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -3815,7 +3816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -3823,15 +3824,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>190</v>
       </c>
       <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -3839,7 +3840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -3847,7 +3848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -3855,7 +3856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -3863,7 +3864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -3871,7 +3872,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -3879,7 +3880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -3887,7 +3888,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -3895,7 +3896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -3903,7 +3904,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -3911,7 +3912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -3919,7 +3920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -3927,7 +3928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -3935,7 +3936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -3943,7 +3944,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -3951,15 +3952,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>206</v>
       </c>
       <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -3967,15 +3968,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>208</v>
       </c>
       <c r="B210">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -3983,15 +3984,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>210</v>
       </c>
       <c r="B212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -3999,7 +4000,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4015,7 +4016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4023,7 +4024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4031,7 +4032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4039,7 +4040,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4047,7 +4048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4055,7 +4056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4063,23 +4064,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>220</v>
       </c>
       <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>221</v>
       </c>
       <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4087,15 +4088,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>223</v>
       </c>
       <c r="B225">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4103,7 +4104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4111,15 +4112,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>226</v>
       </c>
       <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4127,7 +4128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4135,15 +4136,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>229</v>
       </c>
       <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4151,7 +4152,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4159,7 +4160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4167,7 +4168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4175,7 +4176,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4183,7 +4184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4191,7 +4192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4199,7 +4200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4207,7 +4208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4215,7 +4216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4223,15 +4224,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A242" t="s">
         <v>240</v>
       </c>
       <c r="B242">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4239,7 +4240,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4247,7 +4248,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4255,7 +4256,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4263,7 +4264,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -4271,7 +4272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4279,7 +4280,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4287,7 +4288,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4295,15 +4296,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>249</v>
       </c>
       <c r="B251">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4311,7 +4312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4319,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4327,7 +4328,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4335,7 +4336,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4343,15 +4344,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>255</v>
       </c>
       <c r="B257">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4359,7 +4360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4367,7 +4368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4375,7 +4376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4383,7 +4384,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4391,23 +4392,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A263" t="s">
         <v>261</v>
       </c>
       <c r="B263">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A264" t="s">
         <v>262</v>
       </c>
       <c r="B264">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4415,31 +4416,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A266" t="s">
         <v>264</v>
       </c>
       <c r="B266">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A267" t="s">
         <v>265</v>
       </c>
       <c r="B267">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A268" t="s">
         <v>266</v>
       </c>
       <c r="B268">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -4447,7 +4448,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -4455,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -4463,7 +4464,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -4471,7 +4472,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -4479,7 +4480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -4487,7 +4488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -4495,23 +4496,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A276" t="s">
         <v>274</v>
       </c>
       <c r="B276">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A277" t="s">
         <v>275</v>
       </c>
       <c r="B277">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -4519,7 +4520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -4527,7 +4528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -4535,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -4543,23 +4544,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
         <v>280</v>
       </c>
       <c r="B282">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A283" t="s">
         <v>281</v>
       </c>
       <c r="B283">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -4567,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -4575,7 +4576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -4583,7 +4584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -4591,7 +4592,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -4599,39 +4600,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A289" t="s">
         <v>287</v>
       </c>
       <c r="B289">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A290" t="s">
         <v>288</v>
       </c>
       <c r="B290">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A291" t="s">
         <v>289</v>
       </c>
       <c r="B291">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A292" t="s">
         <v>290</v>
       </c>
       <c r="B292">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -4639,7 +4640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -4647,15 +4648,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A295" t="s">
         <v>293</v>
       </c>
       <c r="B295">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -4663,7 +4664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -4671,7 +4672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -4679,7 +4680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -4687,15 +4688,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A300" t="s">
         <v>298</v>
       </c>
       <c r="B300">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -4712,17 +4713,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="A242" sqref="A242"/>
+    <sheetView topLeftCell="B178" workbookViewId="0">
+      <selection activeCell="G189" sqref="G189"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="255.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
@@ -4730,7 +4731,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -4738,7 +4739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -4754,7 +4755,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -4762,7 +4763,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -4770,31 +4771,31 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>306</v>
       </c>
       <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>307</v>
       </c>
       <c r="B8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>308</v>
       </c>
       <c r="B9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -4802,23 +4803,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>310</v>
       </c>
       <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>311</v>
       </c>
       <c r="B12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -4826,7 +4827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -4834,7 +4835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -4842,7 +4843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -4850,15 +4851,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>316</v>
       </c>
       <c r="B17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -4866,7 +4867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -4874,7 +4875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -4882,7 +4883,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -4890,15 +4891,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>321</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -4906,39 +4907,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>323</v>
       </c>
       <c r="B24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>324</v>
       </c>
       <c r="B25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>325</v>
       </c>
       <c r="B26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>326</v>
       </c>
       <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -4946,7 +4947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>328</v>
       </c>
@@ -4954,7 +4955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -4962,15 +4963,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>330</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -4978,7 +4979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -4986,15 +4987,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>333</v>
       </c>
       <c r="B34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -5002,7 +5003,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -5010,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -5018,7 +5019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -5026,15 +5027,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>338</v>
       </c>
       <c r="B39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -5042,23 +5043,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>340</v>
       </c>
       <c r="B41">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>341</v>
       </c>
       <c r="B42">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -5066,15 +5067,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>343</v>
       </c>
       <c r="B44">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -5082,7 +5083,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -5090,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -5098,7 +5099,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -5106,7 +5107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -5114,39 +5115,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>349</v>
       </c>
       <c r="B50">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>350</v>
       </c>
       <c r="B51">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
         <v>351</v>
       </c>
       <c r="B52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
         <v>352</v>
       </c>
       <c r="B53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -5154,7 +5155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -5162,7 +5163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -5170,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -5178,7 +5179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -5186,7 +5187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -5194,23 +5195,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
         <v>359</v>
       </c>
       <c r="B60">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>360</v>
       </c>
       <c r="B61">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -5218,15 +5219,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
         <v>362</v>
       </c>
       <c r="B63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -5234,7 +5235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -5242,7 +5243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -5250,7 +5251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -5258,7 +5259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -5266,7 +5267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -5274,39 +5275,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>369</v>
       </c>
       <c r="B70">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>370</v>
       </c>
       <c r="B71">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>371</v>
       </c>
       <c r="B72">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>372</v>
       </c>
       <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>373</v>
       </c>
@@ -5314,7 +5315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -5322,7 +5323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>375</v>
       </c>
@@ -5330,7 +5331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -5338,7 +5339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -5346,7 +5347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -5354,7 +5355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -5362,7 +5363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -5370,15 +5371,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>381</v>
       </c>
       <c r="B82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -5386,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -5394,7 +5395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>384</v>
       </c>
@@ -5402,7 +5403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -5410,7 +5411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -5418,7 +5419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -5426,7 +5427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -5434,7 +5435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -5442,7 +5443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -5450,23 +5451,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>391</v>
       </c>
       <c r="B92">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>392</v>
       </c>
       <c r="B93">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -5474,7 +5475,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -5482,7 +5483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -5490,7 +5491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -5498,15 +5499,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>397</v>
       </c>
       <c r="B98">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>398</v>
       </c>
@@ -5514,7 +5515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -5522,7 +5523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -5530,7 +5531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -5538,7 +5539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>402</v>
       </c>
@@ -5546,7 +5547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A104" t="s">
         <v>403</v>
       </c>
@@ -5554,7 +5555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -5562,7 +5563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>405</v>
       </c>
@@ -5570,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -5578,7 +5579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
         <v>407</v>
       </c>
@@ -5586,15 +5587,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
         <v>408</v>
       </c>
       <c r="B109">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -5602,7 +5603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -5610,7 +5611,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -5618,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -5626,7 +5627,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -5634,15 +5635,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>414</v>
       </c>
       <c r="B115">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A116" t="s">
         <v>415</v>
       </c>
@@ -5650,7 +5651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -5658,7 +5659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -5666,15 +5667,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A119" t="s">
         <v>418</v>
       </c>
       <c r="B119">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -5682,7 +5683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -5690,15 +5691,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A122" t="s">
         <v>421</v>
       </c>
       <c r="B122">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -5706,7 +5707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>423</v>
       </c>
@@ -5714,7 +5715,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -5722,7 +5723,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -5730,7 +5731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A127" t="s">
         <v>426</v>
       </c>
@@ -5738,7 +5739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -5746,7 +5747,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>428</v>
       </c>
@@ -5754,15 +5755,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>429</v>
       </c>
       <c r="B130">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -5770,7 +5771,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -5778,7 +5779,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -5786,7 +5787,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>433</v>
       </c>
@@ -5794,7 +5795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -5802,7 +5803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -5810,7 +5811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -5818,7 +5819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -5826,7 +5827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -5834,39 +5835,39 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>439</v>
       </c>
       <c r="B140">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>440</v>
       </c>
       <c r="B141">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>441</v>
       </c>
       <c r="B142">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>442</v>
       </c>
       <c r="B143">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -5874,7 +5875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -5882,7 +5883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -5890,7 +5891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>446</v>
       </c>
@@ -5898,7 +5899,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A148" t="s">
         <v>447</v>
       </c>
@@ -5906,7 +5907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -5914,7 +5915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -5922,7 +5923,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -5930,7 +5931,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>451</v>
       </c>
@@ -5938,7 +5939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -5946,7 +5947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -5954,7 +5955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -5962,7 +5963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -5970,7 +5971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -5978,7 +5979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -5986,7 +5987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -5994,7 +5995,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -6002,15 +6003,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
         <v>460</v>
       </c>
       <c r="B161">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -6018,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A163" t="s">
         <v>462</v>
       </c>
@@ -6026,7 +6027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -6034,7 +6035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -6042,7 +6043,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>465</v>
       </c>
@@ -6050,15 +6051,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
         <v>466</v>
       </c>
       <c r="B167">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
         <v>467</v>
       </c>
@@ -6066,7 +6067,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A169" t="s">
         <v>468</v>
       </c>
@@ -6074,15 +6075,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
         <v>469</v>
       </c>
       <c r="B170">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -6090,7 +6091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>473</v>
       </c>
@@ -6098,7 +6099,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
         <v>474</v>
       </c>
@@ -6106,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>475</v>
       </c>
@@ -6114,7 +6115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
         <v>476</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A176" t="s">
         <v>477</v>
       </c>
@@ -6130,7 +6131,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>478</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A178" t="s">
         <v>479</v>
       </c>
@@ -6146,7 +6147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
         <v>480</v>
       </c>
@@ -6154,15 +6155,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
         <v>481</v>
       </c>
       <c r="B180">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A181" t="s">
         <v>482</v>
       </c>
@@ -6170,7 +6171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A182" t="s">
         <v>483</v>
       </c>
@@ -6178,7 +6179,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A183" t="s">
         <v>484</v>
       </c>
@@ -6186,7 +6187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A184" t="s">
         <v>485</v>
       </c>
@@ -6194,7 +6195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A185" t="s">
         <v>486</v>
       </c>
@@ -6202,7 +6203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A186" t="s">
         <v>487</v>
       </c>
@@ -6210,7 +6211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A187" t="s">
         <v>488</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A188" t="s">
         <v>489</v>
       </c>
@@ -6226,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
         <v>490</v>
       </c>
@@ -6234,7 +6235,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>491</v>
       </c>
@@ -6242,7 +6243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>492</v>
       </c>
@@ -6250,7 +6251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>493</v>
       </c>
@@ -6258,15 +6259,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A193" t="s">
         <v>494</v>
       </c>
       <c r="B193">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A194" t="s">
         <v>495</v>
       </c>
@@ -6274,7 +6275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A195" t="s">
         <v>496</v>
       </c>
@@ -6282,7 +6283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A196" t="s">
         <v>497</v>
       </c>
@@ -6290,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>498</v>
       </c>
@@ -6298,7 +6299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A198" t="s">
         <v>499</v>
       </c>
@@ -6306,7 +6307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A199" t="s">
         <v>500</v>
       </c>
@@ -6314,7 +6315,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A200" t="s">
         <v>501</v>
       </c>
@@ -6322,7 +6323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>502</v>
       </c>
@@ -6330,7 +6331,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A202" t="s">
         <v>503</v>
       </c>
@@ -6338,7 +6339,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>504</v>
       </c>
@@ -6346,7 +6347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A204" t="s">
         <v>505</v>
       </c>
@@ -6354,7 +6355,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A205" t="s">
         <v>506</v>
       </c>
@@ -6362,7 +6363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>507</v>
       </c>
@@ -6370,7 +6371,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A207" t="s">
         <v>508</v>
       </c>
@@ -6378,7 +6379,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>509</v>
       </c>
@@ -6386,7 +6387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A209" t="s">
         <v>510</v>
       </c>
@@ -6394,7 +6395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A210" t="s">
         <v>511</v>
       </c>
@@ -6402,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>512</v>
       </c>
@@ -6410,7 +6411,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
         <v>513</v>
       </c>
@@ -6418,7 +6419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>514</v>
       </c>
@@ -6426,7 +6427,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>515</v>
       </c>
@@ -6434,7 +6435,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A215" t="s">
         <v>516</v>
       </c>
@@ -6442,7 +6443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A216" t="s">
         <v>517</v>
       </c>
@@ -6450,7 +6451,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>518</v>
       </c>
@@ -6458,7 +6459,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A218" t="s">
         <v>519</v>
       </c>
@@ -6466,7 +6467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>520</v>
       </c>
@@ -6474,15 +6475,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>521</v>
       </c>
       <c r="B220">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>522</v>
       </c>
@@ -6490,7 +6491,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
         <v>523</v>
       </c>
@@ -6498,7 +6499,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>524</v>
       </c>
@@ -6506,7 +6507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>525</v>
       </c>
@@ -6514,7 +6515,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A225" t="s">
         <v>526</v>
       </c>
@@ -6522,7 +6523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>527</v>
       </c>
@@ -6530,7 +6531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A227" t="s">
         <v>528</v>
       </c>
@@ -6538,7 +6539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A228" t="s">
         <v>529</v>
       </c>
@@ -6546,7 +6547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A229" t="s">
         <v>530</v>
       </c>
@@ -6554,7 +6555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>531</v>
       </c>
@@ -6562,7 +6563,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A231" t="s">
         <v>532</v>
       </c>
@@ -6570,7 +6571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A232" t="s">
         <v>533</v>
       </c>
@@ -6578,7 +6579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>534</v>
       </c>
@@ -6586,7 +6587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A234" t="s">
         <v>535</v>
       </c>
@@ -6594,7 +6595,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A235" t="s">
         <v>536</v>
       </c>
@@ -6602,7 +6603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>537</v>
       </c>
@@ -6610,7 +6611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A237" t="s">
         <v>538</v>
       </c>
@@ -6618,7 +6619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>539</v>
       </c>
@@ -6626,15 +6627,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A239" t="s">
         <v>540</v>
       </c>
       <c r="B239">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A240" t="s">
         <v>541</v>
       </c>
@@ -6642,12 +6643,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>542</v>
       </c>
       <c r="B241">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/samsung1.xlsx
+++ b/samsung1.xlsx
@@ -1,28 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Insper\2020.1\cdados\Projeto1-ttw\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\pasta cdados trab jupter\Projeto1-ttw-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D51642-97B0-4CF3-BC29-AB0C3221CC66}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99642AFA-8EEA-46AF-A2AB-23B6DBB69107}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Treinamento" sheetId="1" r:id="rId1"/>
     <sheet name="Teste" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="543">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="542">
   <si>
     <t>Treinamento</t>
   </si>
@@ -1581,12 +1580,6 @@
     <t>cupom notebook e computadores -informática acer - lenovo - dell - samsung - macbook março 2020 - use o código promocional e ganhe até 70% de desconto acesse: https://t.co/k2ilo2fliz https://t.co/vf2ntgduxk</t>
   </si>
   <si>
-    <t>Grau de relevância</t>
-  </si>
-  <si>
-    <t>Grau de relevancia</t>
-  </si>
-  <si>
     <t>rt @decaptado: pessoal, comprei  o s10 da samsung e decidi sortear o meu iphone xs, pois não me adaptei
 • o celular tá super conservado!…</t>
   </si>
@@ -1891,6 +1884,9 @@
   </si>
   <si>
     <t>samsung minha filha vc atualiza a porra do celular e fode a bateria, eh isso mesmo querida ?</t>
+  </si>
+  <si>
+    <t>relevancia</t>
   </si>
 </sst>
 </file>
@@ -1972,7 +1968,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2294,25 +2290,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B301"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A277" workbookViewId="0">
-      <selection activeCell="A290" sqref="A290"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2320,7 +2316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -2328,7 +2324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -2336,7 +2332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -2344,7 +2340,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -2352,7 +2348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -2360,7 +2356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -2368,7 +2364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -2376,7 +2372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -2384,7 +2380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -2392,7 +2388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -2400,7 +2396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -2408,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -2416,7 +2412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -2424,7 +2420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -2432,7 +2428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -2440,7 +2436,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2448,7 +2444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -2456,7 +2452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -2464,7 +2460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2472,7 +2468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2480,7 +2476,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2488,7 +2484,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -2496,7 +2492,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -2504,7 +2500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -2512,7 +2508,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -2520,7 +2516,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -2528,7 +2524,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -2536,7 +2532,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -2544,7 +2540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -2552,7 +2548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -2560,7 +2556,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -2568,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -2576,7 +2572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -2584,7 +2580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -2592,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -2600,7 +2596,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -2608,7 +2604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -2616,7 +2612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -2624,7 +2620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -2632,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -2640,7 +2636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -2648,7 +2644,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -2656,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -2664,7 +2660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -2672,7 +2668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -2680,7 +2676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -2688,7 +2684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -2696,7 +2692,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -2704,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -2712,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -2720,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -2728,7 +2724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -2736,7 +2732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -2744,7 +2740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -2752,7 +2748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -2760,7 +2756,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -2768,7 +2764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -2776,7 +2772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -2784,7 +2780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -2792,7 +2788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -2800,7 +2796,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -2808,7 +2804,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -2816,7 +2812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -2824,7 +2820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -2832,7 +2828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -2840,7 +2836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -2848,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -2856,7 +2852,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -2864,7 +2860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -2872,7 +2868,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -2880,7 +2876,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -2888,7 +2884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -2896,7 +2892,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -2904,7 +2900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -2912,7 +2908,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -2920,7 +2916,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -2928,7 +2924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -2936,7 +2932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -2944,7 +2940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -2952,7 +2948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -2960,7 +2956,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -2968,7 +2964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -2976,7 +2972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -2984,7 +2980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2992,7 +2988,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -3000,7 +2996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -3008,7 +3004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -3016,7 +3012,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -3024,7 +3020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -3032,7 +3028,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -3040,7 +3036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -3048,7 +3044,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -3056,7 +3052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -3064,7 +3060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -3072,7 +3068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -3080,7 +3076,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -3088,7 +3084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -3096,7 +3092,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -3104,7 +3100,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -3112,7 +3108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -3120,7 +3116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -3128,7 +3124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -3136,7 +3132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -3144,7 +3140,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -3152,7 +3148,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -3160,7 +3156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -3168,7 +3164,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -3176,7 +3172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -3184,7 +3180,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -3192,7 +3188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -3200,7 +3196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -3208,7 +3204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -3216,7 +3212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -3224,7 +3220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -3232,7 +3228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -3240,7 +3236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -3248,7 +3244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -3256,7 +3252,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -3264,7 +3260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -3272,7 +3268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -3280,7 +3276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -3288,7 +3284,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -3296,7 +3292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -3304,7 +3300,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -3312,7 +3308,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -3320,7 +3316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -3328,7 +3324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -3336,7 +3332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -3344,7 +3340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -3352,7 +3348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -3360,7 +3356,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -3368,7 +3364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -3376,7 +3372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -3384,7 +3380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -3392,7 +3388,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -3400,7 +3396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -3408,7 +3404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -3416,7 +3412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -3424,7 +3420,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -3432,7 +3428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -3440,7 +3436,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -3448,7 +3444,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -3456,7 +3452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -3464,7 +3460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -3472,7 +3468,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -3480,7 +3476,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -3488,7 +3484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -3496,7 +3492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -3504,7 +3500,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -3512,7 +3508,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -3520,7 +3516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -3528,7 +3524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -3536,7 +3532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -3544,7 +3540,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -3552,7 +3548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -3560,7 +3556,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -3568,7 +3564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
@@ -3576,7 +3572,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
@@ -3584,7 +3580,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>160</v>
       </c>
@@ -3592,7 +3588,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -3600,7 +3596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>162</v>
       </c>
@@ -3608,7 +3604,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>163</v>
       </c>
@@ -3616,7 +3612,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>164</v>
       </c>
@@ -3624,7 +3620,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>165</v>
       </c>
@@ -3632,7 +3628,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>166</v>
       </c>
@@ -3640,7 +3636,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>167</v>
       </c>
@@ -3648,7 +3644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>168</v>
       </c>
@@ -3656,7 +3652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>169</v>
       </c>
@@ -3664,7 +3660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
         <v>170</v>
       </c>
@@ -3672,7 +3668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
         <v>171</v>
       </c>
@@ -3680,7 +3676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
         <v>172</v>
       </c>
@@ -3688,7 +3684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
         <v>173</v>
       </c>
@@ -3696,7 +3692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
         <v>174</v>
       </c>
@@ -3704,7 +3700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
         <v>175</v>
       </c>
@@ -3712,7 +3708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
         <v>176</v>
       </c>
@@ -3720,7 +3716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
         <v>177</v>
       </c>
@@ -3728,7 +3724,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
         <v>178</v>
       </c>
@@ -3736,7 +3732,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
         <v>179</v>
       </c>
@@ -3744,7 +3740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
         <v>180</v>
       </c>
@@ -3752,7 +3748,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
         <v>181</v>
       </c>
@@ -3760,7 +3756,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
         <v>182</v>
       </c>
@@ -3768,7 +3764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
         <v>183</v>
       </c>
@@ -3776,7 +3772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
         <v>184</v>
       </c>
@@ -3784,7 +3780,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
         <v>185</v>
       </c>
@@ -3792,7 +3788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
         <v>186</v>
       </c>
@@ -3800,7 +3796,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
         <v>187</v>
       </c>
@@ -3808,7 +3804,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
         <v>188</v>
       </c>
@@ -3816,7 +3812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
         <v>189</v>
       </c>
@@ -3824,7 +3820,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
         <v>190</v>
       </c>
@@ -3832,7 +3828,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
         <v>191</v>
       </c>
@@ -3840,7 +3836,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
         <v>192</v>
       </c>
@@ -3848,7 +3844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
         <v>193</v>
       </c>
@@ -3856,7 +3852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
         <v>194</v>
       </c>
@@ -3864,7 +3860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
         <v>195</v>
       </c>
@@ -3872,7 +3868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
         <v>196</v>
       </c>
@@ -3880,7 +3876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
         <v>197</v>
       </c>
@@ -3888,7 +3884,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
         <v>198</v>
       </c>
@@ -3896,7 +3892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
         <v>199</v>
       </c>
@@ -3904,7 +3900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
         <v>200</v>
       </c>
@@ -3912,7 +3908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
         <v>201</v>
       </c>
@@ -3920,7 +3916,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
         <v>202</v>
       </c>
@@ -3928,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
         <v>203</v>
       </c>
@@ -3936,7 +3932,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
         <v>204</v>
       </c>
@@ -3944,7 +3940,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
         <v>205</v>
       </c>
@@ -3952,7 +3948,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
         <v>206</v>
       </c>
@@ -3960,7 +3956,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
         <v>207</v>
       </c>
@@ -3968,7 +3964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
         <v>208</v>
       </c>
@@ -3976,7 +3972,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
         <v>209</v>
       </c>
@@ -3984,7 +3980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
         <v>210</v>
       </c>
@@ -3992,7 +3988,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
         <v>211</v>
       </c>
@@ -4000,7 +3996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
         <v>212</v>
       </c>
@@ -4008,7 +4004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
         <v>213</v>
       </c>
@@ -4016,7 +4012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
         <v>214</v>
       </c>
@@ -4024,7 +4020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
         <v>215</v>
       </c>
@@ -4032,7 +4028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
         <v>216</v>
       </c>
@@ -4040,7 +4036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
         <v>217</v>
       </c>
@@ -4048,7 +4044,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
         <v>218</v>
       </c>
@@ -4056,7 +4052,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
         <v>219</v>
       </c>
@@ -4064,7 +4060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
         <v>220</v>
       </c>
@@ -4072,7 +4068,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
         <v>221</v>
       </c>
@@ -4080,7 +4076,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
         <v>222</v>
       </c>
@@ -4088,7 +4084,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
         <v>223</v>
       </c>
@@ -4096,7 +4092,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
         <v>224</v>
       </c>
@@ -4104,7 +4100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
         <v>225</v>
       </c>
@@ -4112,7 +4108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
         <v>226</v>
       </c>
@@ -4120,7 +4116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
         <v>227</v>
       </c>
@@ -4128,7 +4124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
         <v>228</v>
       </c>
@@ -4136,7 +4132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
         <v>229</v>
       </c>
@@ -4144,7 +4140,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
         <v>230</v>
       </c>
@@ -4152,7 +4148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
         <v>231</v>
       </c>
@@ -4160,7 +4156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
         <v>232</v>
       </c>
@@ -4168,7 +4164,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
         <v>233</v>
       </c>
@@ -4176,7 +4172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
         <v>234</v>
       </c>
@@ -4184,7 +4180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
         <v>235</v>
       </c>
@@ -4192,7 +4188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
         <v>236</v>
       </c>
@@ -4200,7 +4196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
         <v>237</v>
       </c>
@@ -4208,7 +4204,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
         <v>238</v>
       </c>
@@ -4216,7 +4212,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
         <v>239</v>
       </c>
@@ -4224,7 +4220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
         <v>240</v>
       </c>
@@ -4232,7 +4228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
         <v>241</v>
       </c>
@@ -4240,7 +4236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
         <v>242</v>
       </c>
@@ -4248,7 +4244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
         <v>243</v>
       </c>
@@ -4256,7 +4252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
         <v>244</v>
       </c>
@@ -4264,7 +4260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
         <v>245</v>
       </c>
@@ -4272,7 +4268,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
         <v>246</v>
       </c>
@@ -4280,7 +4276,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
         <v>247</v>
       </c>
@@ -4288,7 +4284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
         <v>248</v>
       </c>
@@ -4296,7 +4292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
         <v>249</v>
       </c>
@@ -4304,7 +4300,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
         <v>250</v>
       </c>
@@ -4312,7 +4308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
         <v>251</v>
       </c>
@@ -4320,7 +4316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
         <v>252</v>
       </c>
@@ -4328,7 +4324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
         <v>253</v>
       </c>
@@ -4336,7 +4332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
         <v>254</v>
       </c>
@@ -4344,7 +4340,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
         <v>255</v>
       </c>
@@ -4352,7 +4348,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
         <v>256</v>
       </c>
@@ -4360,7 +4356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
         <v>257</v>
       </c>
@@ -4368,7 +4364,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
         <v>258</v>
       </c>
@@ -4376,7 +4372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
         <v>259</v>
       </c>
@@ -4384,7 +4380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
         <v>260</v>
       </c>
@@ -4392,7 +4388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
         <v>261</v>
       </c>
@@ -4400,7 +4396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
         <v>262</v>
       </c>
@@ -4408,7 +4404,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
         <v>263</v>
       </c>
@@ -4416,7 +4412,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
         <v>264</v>
       </c>
@@ -4424,7 +4420,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
         <v>265</v>
       </c>
@@ -4432,7 +4428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
         <v>266</v>
       </c>
@@ -4440,7 +4436,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
         <v>267</v>
       </c>
@@ -4448,7 +4444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
         <v>268</v>
       </c>
@@ -4456,7 +4452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
         <v>269</v>
       </c>
@@ -4464,7 +4460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
         <v>270</v>
       </c>
@@ -4472,7 +4468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
         <v>271</v>
       </c>
@@ -4480,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
         <v>272</v>
       </c>
@@ -4488,7 +4484,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
         <v>273</v>
       </c>
@@ -4496,7 +4492,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
         <v>274</v>
       </c>
@@ -4504,7 +4500,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
         <v>275</v>
       </c>
@@ -4512,7 +4508,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
         <v>276</v>
       </c>
@@ -4520,7 +4516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
         <v>277</v>
       </c>
@@ -4528,7 +4524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
         <v>278</v>
       </c>
@@ -4536,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
         <v>279</v>
       </c>
@@ -4544,7 +4540,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
         <v>280</v>
       </c>
@@ -4552,7 +4548,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
         <v>281</v>
       </c>
@@ -4560,7 +4556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
         <v>282</v>
       </c>
@@ -4568,7 +4564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
         <v>283</v>
       </c>
@@ -4576,7 +4572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
         <v>284</v>
       </c>
@@ -4584,7 +4580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
         <v>285</v>
       </c>
@@ -4592,7 +4588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
         <v>286</v>
       </c>
@@ -4600,7 +4596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
         <v>287</v>
       </c>
@@ -4608,7 +4604,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
         <v>288</v>
       </c>
@@ -4616,7 +4612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
         <v>289</v>
       </c>
@@ -4624,7 +4620,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
         <v>290</v>
       </c>
@@ -4632,7 +4628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
         <v>291</v>
       </c>
@@ -4640,7 +4636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
         <v>292</v>
       </c>
@@ -4648,7 +4644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
         <v>293</v>
       </c>
@@ -4656,7 +4652,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
         <v>294</v>
       </c>
@@ -4664,7 +4660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
         <v>295</v>
       </c>
@@ -4672,7 +4668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
         <v>296</v>
       </c>
@@ -4680,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
         <v>297</v>
       </c>
@@ -4688,7 +4684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
         <v>298</v>
       </c>
@@ -4696,7 +4692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
         <v>299</v>
       </c>
@@ -4713,25 +4709,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B241"/>
   <sheetViews>
-    <sheetView topLeftCell="B178" workbookViewId="0">
-      <selection activeCell="G189" sqref="G189"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="255.54296875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="255.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>300</v>
       </c>
       <c r="B1" t="s">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>301</v>
       </c>
@@ -4739,7 +4735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>302</v>
       </c>
@@ -4747,7 +4743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>303</v>
       </c>
@@ -4755,7 +4751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>304</v>
       </c>
@@ -4763,7 +4759,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>305</v>
       </c>
@@ -4771,7 +4767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>306</v>
       </c>
@@ -4779,7 +4775,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>307</v>
       </c>
@@ -4787,7 +4783,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>308</v>
       </c>
@@ -4795,7 +4791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>309</v>
       </c>
@@ -4803,7 +4799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>310</v>
       </c>
@@ -4811,7 +4807,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>311</v>
       </c>
@@ -4819,7 +4815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>312</v>
       </c>
@@ -4827,7 +4823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>313</v>
       </c>
@@ -4835,7 +4831,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>314</v>
       </c>
@@ -4843,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>315</v>
       </c>
@@ -4851,7 +4847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>316</v>
       </c>
@@ -4859,7 +4855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>317</v>
       </c>
@@ -4867,7 +4863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>318</v>
       </c>
@@ -4875,7 +4871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>319</v>
       </c>
@@ -4883,7 +4879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>320</v>
       </c>
@@ -4891,7 +4887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>321</v>
       </c>
@@ -4899,7 +4895,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>322</v>
       </c>
@@ -4907,7 +4903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>323</v>
       </c>
@@ -4915,7 +4911,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>324</v>
       </c>
@@ -4923,7 +4919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>325</v>
       </c>
@@ -4931,7 +4927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>326</v>
       </c>
@@ -4939,7 +4935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>327</v>
       </c>
@@ -4947,7 +4943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>328</v>
       </c>
@@ -4955,7 +4951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>329</v>
       </c>
@@ -4963,7 +4959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>330</v>
       </c>
@@ -4971,7 +4967,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>331</v>
       </c>
@@ -4979,7 +4975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>332</v>
       </c>
@@ -4987,7 +4983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>333</v>
       </c>
@@ -4995,7 +4991,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>334</v>
       </c>
@@ -5003,7 +4999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>335</v>
       </c>
@@ -5011,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>336</v>
       </c>
@@ -5019,7 +5015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>337</v>
       </c>
@@ -5027,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>338</v>
       </c>
@@ -5035,7 +5031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>339</v>
       </c>
@@ -5043,7 +5039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>340</v>
       </c>
@@ -5051,7 +5047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>341</v>
       </c>
@@ -5059,7 +5055,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>342</v>
       </c>
@@ -5067,7 +5063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>343</v>
       </c>
@@ -5075,7 +5071,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>344</v>
       </c>
@@ -5083,7 +5079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>345</v>
       </c>
@@ -5091,7 +5087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>346</v>
       </c>
@@ -5099,7 +5095,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>347</v>
       </c>
@@ -5107,7 +5103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>348</v>
       </c>
@@ -5115,7 +5111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>349</v>
       </c>
@@ -5123,7 +5119,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>350</v>
       </c>
@@ -5131,7 +5127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>351</v>
       </c>
@@ -5139,7 +5135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>352</v>
       </c>
@@ -5147,7 +5143,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>353</v>
       </c>
@@ -5155,7 +5151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>354</v>
       </c>
@@ -5163,7 +5159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>355</v>
       </c>
@@ -5171,7 +5167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>356</v>
       </c>
@@ -5179,7 +5175,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>357</v>
       </c>
@@ -5187,7 +5183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>358</v>
       </c>
@@ -5195,7 +5191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>359</v>
       </c>
@@ -5203,7 +5199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>360</v>
       </c>
@@ -5211,7 +5207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>361</v>
       </c>
@@ -5219,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>362</v>
       </c>
@@ -5227,7 +5223,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>363</v>
       </c>
@@ -5235,7 +5231,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>364</v>
       </c>
@@ -5243,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>365</v>
       </c>
@@ -5251,7 +5247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>366</v>
       </c>
@@ -5259,7 +5255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>367</v>
       </c>
@@ -5267,7 +5263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>368</v>
       </c>
@@ -5275,7 +5271,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>369</v>
       </c>
@@ -5283,7 +5279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>370</v>
       </c>
@@ -5291,7 +5287,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>371</v>
       </c>
@@ -5299,7 +5295,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>372</v>
       </c>
@@ -5307,7 +5303,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>373</v>
       </c>
@@ -5315,7 +5311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>374</v>
       </c>
@@ -5323,7 +5319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>375</v>
       </c>
@@ -5331,7 +5327,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>376</v>
       </c>
@@ -5339,7 +5335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>377</v>
       </c>
@@ -5347,7 +5343,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>378</v>
       </c>
@@ -5355,7 +5351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>379</v>
       </c>
@@ -5363,7 +5359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>380</v>
       </c>
@@ -5371,7 +5367,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>381</v>
       </c>
@@ -5379,7 +5375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>382</v>
       </c>
@@ -5387,7 +5383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>383</v>
       </c>
@@ -5395,7 +5391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>384</v>
       </c>
@@ -5403,7 +5399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>385</v>
       </c>
@@ -5411,7 +5407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>386</v>
       </c>
@@ -5419,7 +5415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>387</v>
       </c>
@@ -5427,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>388</v>
       </c>
@@ -5435,7 +5431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>389</v>
       </c>
@@ -5443,7 +5439,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>390</v>
       </c>
@@ -5451,7 +5447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>391</v>
       </c>
@@ -5459,7 +5455,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>392</v>
       </c>
@@ -5467,7 +5463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>393</v>
       </c>
@@ -5475,7 +5471,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>394</v>
       </c>
@@ -5483,7 +5479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>395</v>
       </c>
@@ -5491,7 +5487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>396</v>
       </c>
@@ -5499,7 +5495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>397</v>
       </c>
@@ -5507,7 +5503,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>398</v>
       </c>
@@ -5515,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>399</v>
       </c>
@@ -5523,7 +5519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>400</v>
       </c>
@@ -5531,7 +5527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>401</v>
       </c>
@@ -5539,7 +5535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>402</v>
       </c>
@@ -5547,7 +5543,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>403</v>
       </c>
@@ -5555,7 +5551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>404</v>
       </c>
@@ -5563,7 +5559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>405</v>
       </c>
@@ -5571,7 +5567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>406</v>
       </c>
@@ -5579,7 +5575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>407</v>
       </c>
@@ -5587,7 +5583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>408</v>
       </c>
@@ -5595,7 +5591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>409</v>
       </c>
@@ -5603,7 +5599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>410</v>
       </c>
@@ -5611,7 +5607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>411</v>
       </c>
@@ -5619,7 +5615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>412</v>
       </c>
@@ -5627,7 +5623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>413</v>
       </c>
@@ -5635,7 +5631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>414</v>
       </c>
@@ -5643,7 +5639,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>415</v>
       </c>
@@ -5651,7 +5647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>416</v>
       </c>
@@ -5659,7 +5655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>417</v>
       </c>
@@ -5667,7 +5663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>418</v>
       </c>
@@ -5675,7 +5671,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>419</v>
       </c>
@@ -5683,7 +5679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>420</v>
       </c>
@@ -5691,7 +5687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>421</v>
       </c>
@@ -5699,7 +5695,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>422</v>
       </c>
@@ -5707,7 +5703,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>423</v>
       </c>
@@ -5715,7 +5711,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>424</v>
       </c>
@@ -5723,7 +5719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>425</v>
       </c>
@@ -5731,7 +5727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>426</v>
       </c>
@@ -5739,7 +5735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>427</v>
       </c>
@@ -5747,7 +5743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>428</v>
       </c>
@@ -5755,7 +5751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>429</v>
       </c>
@@ -5763,7 +5759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>430</v>
       </c>
@@ -5771,7 +5767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>431</v>
       </c>
@@ -5779,7 +5775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>432</v>
       </c>
@@ -5787,7 +5783,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>433</v>
       </c>
@@ -5795,7 +5791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>434</v>
       </c>
@@ -5803,7 +5799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>435</v>
       </c>
@@ -5811,7 +5807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>436</v>
       </c>
@@ -5819,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>437</v>
       </c>
@@ -5827,7 +5823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>438</v>
       </c>
@@ -5835,7 +5831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>439</v>
       </c>
@@ -5843,7 +5839,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>440</v>
       </c>
@@ -5851,7 +5847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>441</v>
       </c>
@@ -5859,7 +5855,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>442</v>
       </c>
@@ -5867,7 +5863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>443</v>
       </c>
@@ -5875,7 +5871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>444</v>
       </c>
@@ -5883,7 +5879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>445</v>
       </c>
@@ -5891,7 +5887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>446</v>
       </c>
@@ -5899,7 +5895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>447</v>
       </c>
@@ -5907,7 +5903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>448</v>
       </c>
@@ -5915,7 +5911,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>449</v>
       </c>
@@ -5923,7 +5919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>450</v>
       </c>
@@ -5931,7 +5927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>451</v>
       </c>
@@ -5939,7 +5935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>452</v>
       </c>
@@ -5947,7 +5943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>453</v>
       </c>
@@ -5955,7 +5951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>454</v>
       </c>
@@ -5963,7 +5959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>455</v>
       </c>
@@ -5971,7 +5967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>456</v>
       </c>
@@ -5979,7 +5975,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>457</v>
       </c>
@@ -5987,7 +5983,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>458</v>
       </c>
@@ -5995,7 +5991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>459</v>
       </c>
@@ -6003,7 +5999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>460</v>
       </c>
@@ -6011,7 +6007,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
         <v>461</v>
       </c>
@@ -6019,7 +6015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
         <v>462</v>
       </c>
@@ -6027,7 +6023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
         <v>463</v>
       </c>
@@ -6035,7 +6031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
         <v>464</v>
       </c>
@@ -6043,7 +6039,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
         <v>465</v>
       </c>
@@ -6051,7 +6047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
         <v>466</v>
       </c>
@@ -6059,7 +6055,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
         <v>467</v>
       </c>
@@ -6067,7 +6063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
         <v>468</v>
       </c>
@@ -6075,7 +6071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
         <v>469</v>
       </c>
@@ -6083,7 +6079,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
         <v>470</v>
       </c>
@@ -6091,561 +6087,561 @@
         <v>0</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
+        <v>471</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>472</v>
+      </c>
+      <c r="B173">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
         <v>473</v>
       </c>
-      <c r="B172">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A173" t="s">
+      <c r="B174">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>474</v>
       </c>
-      <c r="B173">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A174" t="s">
+      <c r="B175">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>475</v>
       </c>
-      <c r="B174">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A175" t="s">
+      <c r="B176">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>476</v>
       </c>
-      <c r="B175">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A176" t="s">
+      <c r="B177">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
         <v>477</v>
       </c>
-      <c r="B176">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A177" t="s">
+      <c r="B178">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>478</v>
       </c>
-      <c r="B177">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A178" t="s">
+      <c r="B179">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>479</v>
       </c>
-      <c r="B178">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A179" t="s">
+      <c r="B180">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>480</v>
       </c>
-      <c r="B179">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A180" t="s">
+      <c r="B181">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
         <v>481</v>
       </c>
-      <c r="B180">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A181" t="s">
+      <c r="B182">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
         <v>482</v>
       </c>
-      <c r="B181">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A182" t="s">
+      <c r="B183">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
         <v>483</v>
       </c>
-      <c r="B182">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A183" t="s">
+      <c r="B184">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>484</v>
       </c>
-      <c r="B183">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A184" t="s">
+      <c r="B185">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>485</v>
       </c>
-      <c r="B184">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A185" t="s">
+      <c r="B186">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>486</v>
       </c>
-      <c r="B185">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A186" t="s">
+      <c r="B187">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>487</v>
       </c>
-      <c r="B186">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A187" t="s">
+      <c r="B188">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>488</v>
       </c>
-      <c r="B187">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A188" t="s">
+      <c r="B189">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
         <v>489</v>
       </c>
-      <c r="B188">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A189" t="s">
+      <c r="B190">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>490</v>
       </c>
-      <c r="B189">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A190" t="s">
+      <c r="B191">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>491</v>
       </c>
-      <c r="B190">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A191" t="s">
+      <c r="B192">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
         <v>492</v>
       </c>
-      <c r="B191">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A192" t="s">
+      <c r="B193">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
         <v>493</v>
       </c>
-      <c r="B192">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A193" t="s">
+      <c r="B194">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
         <v>494</v>
       </c>
-      <c r="B193">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A194" t="s">
+      <c r="B195">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
         <v>495</v>
       </c>
-      <c r="B194">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A195" t="s">
+      <c r="B196">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
         <v>496</v>
       </c>
-      <c r="B195">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A196" t="s">
+      <c r="B197">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
         <v>497</v>
       </c>
-      <c r="B196">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A197" t="s">
+      <c r="B198">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
         <v>498</v>
       </c>
-      <c r="B197">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A198" t="s">
+      <c r="B199">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
         <v>499</v>
       </c>
-      <c r="B198">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A199" t="s">
+      <c r="B200">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
         <v>500</v>
       </c>
-      <c r="B199">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A200" t="s">
+      <c r="B201">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
         <v>501</v>
       </c>
-      <c r="B200">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A201" t="s">
+      <c r="B202">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
         <v>502</v>
       </c>
-      <c r="B201">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A202" t="s">
+      <c r="B203">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
         <v>503</v>
       </c>
-      <c r="B202">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A203" t="s">
+      <c r="B204">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
         <v>504</v>
       </c>
-      <c r="B203">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A204" t="s">
+      <c r="B205">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
         <v>505</v>
       </c>
-      <c r="B204">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A205" t="s">
+      <c r="B206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
         <v>506</v>
       </c>
-      <c r="B205">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A206" t="s">
+      <c r="B207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
         <v>507</v>
       </c>
-      <c r="B206">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A207" t="s">
+      <c r="B208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>508</v>
       </c>
-      <c r="B207">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A208" t="s">
+      <c r="B209">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>509</v>
       </c>
-      <c r="B208">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A209" t="s">
+      <c r="B210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>510</v>
       </c>
-      <c r="B209">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A210" t="s">
+      <c r="B211">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>511</v>
       </c>
-      <c r="B210">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A211" t="s">
+      <c r="B212">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>512</v>
       </c>
-      <c r="B211">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A212" t="s">
+      <c r="B213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>513</v>
       </c>
-      <c r="B212">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A213" t="s">
+      <c r="B214">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>514</v>
       </c>
-      <c r="B213">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A214" t="s">
+      <c r="B215">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>515</v>
       </c>
-      <c r="B214">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A215" t="s">
+      <c r="B216">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>516</v>
       </c>
-      <c r="B215">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A216" t="s">
+      <c r="B217">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>517</v>
       </c>
-      <c r="B216">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A217" t="s">
+      <c r="B218">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
         <v>518</v>
       </c>
-      <c r="B217">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A218" t="s">
+      <c r="B219">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
         <v>519</v>
       </c>
-      <c r="B218">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A219" t="s">
+      <c r="B220">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
         <v>520</v>
       </c>
-      <c r="B219">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A220" t="s">
+      <c r="B221">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
         <v>521</v>
       </c>
-      <c r="B220">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A221" t="s">
+      <c r="B222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
         <v>522</v>
       </c>
-      <c r="B221">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A222" t="s">
+      <c r="B223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
         <v>523</v>
       </c>
-      <c r="B222">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A223" t="s">
+      <c r="B224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
         <v>524</v>
       </c>
-      <c r="B223">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A224" t="s">
+      <c r="B225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
         <v>525</v>
       </c>
-      <c r="B224">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A225" t="s">
+      <c r="B226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
         <v>526</v>
       </c>
-      <c r="B225">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A226" t="s">
+      <c r="B227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
         <v>527</v>
       </c>
-      <c r="B226">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A227" t="s">
+      <c r="B228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
         <v>528</v>
       </c>
-      <c r="B227">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A228" t="s">
+      <c r="B229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
         <v>529</v>
       </c>
-      <c r="B228">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A229" t="s">
+      <c r="B230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
         <v>530</v>
       </c>
-      <c r="B229">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A230" t="s">
+      <c r="B231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
         <v>531</v>
       </c>
-      <c r="B230">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A231" t="s">
+      <c r="B232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
         <v>532</v>
       </c>
-      <c r="B231">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A232" t="s">
+      <c r="B233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
         <v>533</v>
       </c>
-      <c r="B232">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A233" t="s">
+      <c r="B234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
         <v>534</v>
       </c>
-      <c r="B233">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A234" t="s">
+      <c r="B235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
         <v>535</v>
       </c>
-      <c r="B234">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A235" t="s">
+      <c r="B236">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
         <v>536</v>
       </c>
-      <c r="B235">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A236" t="s">
+      <c r="B237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
         <v>537</v>
       </c>
-      <c r="B236">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A237" t="s">
+      <c r="B238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
         <v>538</v>
       </c>
-      <c r="B237">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A238" t="s">
+      <c r="B239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
         <v>539</v>
       </c>
-      <c r="B238">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A239" t="s">
+      <c r="B240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
         <v>540</v>
-      </c>
-      <c r="B239">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A240" t="s">
-        <v>541</v>
-      </c>
-      <c r="B240">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A241" t="s">
-        <v>542</v>
       </c>
       <c r="B241">
         <v>2</v>
